--- a/하교.xlsx
+++ b/하교.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1204j\Desktop\소창프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D5D8CA-504D-4986-933A-D894B1B85152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490E2CCC-F5E7-4E33-86AB-2BAD2D1F4747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{A63CA71A-2B36-4FD5-9D78-9B7136B1BD18}"/>
+    <workbookView xWindow="3292" yWindow="690" windowWidth="16200" windowHeight="9308" xr2:uid="{A63CA71A-2B36-4FD5-9D78-9B7136B1BD18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="32">
   <si>
     <t>전</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A84EB73-9E41-4677-A152-0CEB52B1AB9F}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
@@ -537,7 +537,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -578,66 +578,69 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>3</v>
@@ -652,42 +655,42 @@
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
         <v>3</v>
@@ -698,22 +701,22 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -722,10 +725,10 @@
         <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
@@ -739,7 +742,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -772,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
         <v>3</v>
@@ -780,22 +783,22 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -807,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
         <v>3</v>
@@ -821,22 +824,22 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
@@ -848,13 +851,13 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
         <v>3</v>
@@ -862,7 +865,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -871,13 +874,13 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -889,13 +892,13 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
         <v>3</v>
@@ -903,7 +906,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -939,12 +942,12 @@
         <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -979,10 +982,13 @@
       <c r="L11" t="s">
         <v>30</v>
       </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.6">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -991,33 +997,74 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
         <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.6">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
         <v>3</v>
       </c>
     </row>
